--- a/diagnosis_output.xlsx
+++ b/diagnosis_output.xlsx
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -599,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
